--- a/Analysis/Open-source/LLM/deepseekResponse.xlsx
+++ b/Analysis/Open-source/LLM/deepseekResponse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/479ad58e3c242e22/Advanced software quality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oulu study\Period 3\Advanced quality\llm-message-dispatch-tool\Analysis\Open-source\LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{63B2A4CE-D73A-401F-8323-1B1FCE7BE25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF00855D-C959-4B8A-8018-C0E54081A6E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B5D9E-CC82-467D-BF4C-72F640A00CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="13540" activeTab="4" xr2:uid="{C11B6E5B-797C-424E-B153-F0E7EBA3D4AA}"/>
+    <workbookView xWindow="3270" yWindow="945" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{C11B6E5B-797C-424E-B153-F0E7EBA3D4AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -1936,29 +1936,6 @@
     <t>Minimize redundant file access and optimize read/write operations.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CHATGPT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:system message "You're an expert in software quality evaluation, you are tasked with analyzing the code and improving its quality.", user message "Help me identify code issues not flagged by SonarQube which provided in the file attached, only care about the issues sheet, from the repository folder ",https://github.com/apache/commons-io/tree/master/src/main/java/org/apache/commons/io", only 20 first java classes order by name from ByteBuffers.java to IORandomAccessFile.java in that folder, not the classes in the folders inside that folder such as build, channels"</t>
-    </r>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -6886,6 +6863,9 @@
     "content": "You're an expert in software quality evaluation, you are tasked with analyzing the code and improving its quality. "}
   ]
 }</t>
+  </si>
+  <si>
+    <t>DeepseekV3:system message "You're an expert in software quality evaluation, you are tasked with analyzing the code and improving its quality.", user message "Help me identify code issues not flagged by SonarQube which provided in the file attached, only care about the issues sheet, from the repository folder ",https://github.com/apache/commons-io/tree/master/src/main/java/org/apache/commons/io", only 20 first java classes order by name from ByteBuffers.java to IORandomAccessFile.java in that folder, not the classes in the folders inside that folder such as build, channels"</t>
   </si>
 </sst>
 </file>
@@ -7388,15 +7368,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="406">
+    <row r="1" spans="1:2" ht="409.5">
       <c r="A1" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7407,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5">
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -7415,7 +7395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -7423,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -7431,7 +7411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
+    <row r="7" spans="1:2" ht="60">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7439,7 +7419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7447,7 +7427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="72.5">
+    <row r="9" spans="1:2" ht="75">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -7455,7 +7435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="58">
+    <row r="10" spans="1:2" ht="60">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -7463,7 +7443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="58">
+    <row r="11" spans="1:2" ht="60">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -7471,7 +7451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="58">
+    <row r="12" spans="1:2" ht="60">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -7479,7 +7459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58">
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -7487,7 +7467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -7495,7 +7475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="58">
+    <row r="15" spans="1:2" ht="75">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -7503,7 +7483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7511,7 +7491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -7519,7 +7499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="58">
+    <row r="18" spans="1:2" ht="75">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -7527,7 +7507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -7535,7 +7515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="58">
+    <row r="20" spans="1:2" ht="60">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -7556,209 +7536,209 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="153">
+    <row r="2" spans="2:6" ht="185.25">
       <c r="B2" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="147">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="144.75">
       <c r="B5" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="155.25">
+      <c r="B6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="157.5">
-      <c r="B6" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="120.75">
+      <c r="B7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="122.5">
-      <c r="B7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="138">
+      <c r="B8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="140">
-      <c r="B8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="105">
+    </row>
+    <row r="9" spans="2:6" ht="103.5">
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>374</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="175">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="172.5">
       <c r="B10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="126">
+      <c r="B11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="128">
-      <c r="B11" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="103.5">
+      <c r="B12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="120.75">
+      <c r="B13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="103.5">
+      <c r="B14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="105">
-      <c r="B12" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="122.5">
-      <c r="B13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="105">
-      <c r="B14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7774,209 +7754,209 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="137">
+    <row r="2" spans="2:6" ht="169.5">
       <c r="B2" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="105">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="103.5">
       <c r="B5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="241.5">
+      <c r="B6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="245">
-      <c r="B6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="151.5">
+    </row>
+    <row r="7" spans="2:6" ht="149.25">
       <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="157.5">
+    </row>
+    <row r="8" spans="2:6" ht="155.25">
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="9" spans="2:6" ht="120.75">
+      <c r="B9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="105">
-      <c r="B9" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F9" s="8" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="117.75">
+      <c r="B10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="119.5">
-      <c r="B10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="122.5">
+    </row>
+    <row r="11" spans="2:6" ht="120.75">
       <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="120.75">
+      <c r="B12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="144.75">
+      <c r="B13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="122.5">
-      <c r="B12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="131">
-      <c r="B13" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E13" s="8" t="s">
+    <row r="14" spans="2:6" ht="126">
+      <c r="B14" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="128">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7992,192 +7972,192 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="137">
+    <row r="2" spans="2:6" ht="169.5">
       <c r="B2" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="147">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="144.75">
       <c r="B5" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="120.75">
+      <c r="B6" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="122.5">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="138">
+      <c r="B7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="140">
-      <c r="B7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="138">
+      <c r="B8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="140">
-      <c r="B8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="140">
+    </row>
+    <row r="9" spans="2:6" ht="138">
       <c r="B9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="120.75">
+      <c r="B10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="122.5">
-      <c r="B10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="155.25">
+      <c r="B11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="157.5">
-      <c r="B11" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>119</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="8" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="120.75">
+      <c r="B12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="122.5">
-      <c r="B12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="122.5">
+    </row>
+    <row r="13" spans="2:6" ht="120.75">
       <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8193,209 +8173,209 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="175">
+    <row r="2" spans="2:6" ht="189.75">
       <c r="B2" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="155.25">
+      <c r="B5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="155.25">
+      <c r="B6" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="157.5">
-      <c r="B5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="157.5">
-      <c r="B6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="155.25">
+      <c r="B7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="157.5">
-      <c r="B7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="F7" s="12" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="120.75">
+      <c r="B8" s="7" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="122.5">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="105">
+    </row>
+    <row r="9" spans="2:6" ht="103.5">
       <c r="B9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="F9" s="12" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="138">
+      <c r="B10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="140">
-      <c r="B10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="140">
+    </row>
+    <row r="11" spans="2:6" ht="138">
       <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="103.5">
+      <c r="B12" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="122.5">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="105">
+    </row>
+    <row r="13" spans="2:6" ht="103.5">
       <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="F13" s="12" t="s">
+    </row>
+    <row r="14" spans="2:6" ht="120.75">
+      <c r="B14" s="7" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="122.5">
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>515</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -8411,212 +8391,212 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="70">
+    <row r="2" spans="2:6" ht="69">
       <c r="B2" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="121">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="119.25">
       <c r="B5" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="6" spans="2:6" ht="86.25">
+      <c r="B6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="87.5">
-      <c r="B6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="87.5">
+    </row>
+    <row r="7" spans="2:6" ht="97.5">
       <c r="B7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>527</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="105">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="103.5">
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="F8" s="12" t="s">
+    </row>
+    <row r="9" spans="2:6" ht="103.5">
+      <c r="B9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="105">
-      <c r="B9" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="103.5">
+      <c r="B10" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="105">
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="87.5">
+    </row>
+    <row r="11" spans="2:6" ht="86.25">
       <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="69">
+      <c r="B12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="70">
-      <c r="B12" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="F12" s="12" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="69">
+      <c r="B13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="70">
-      <c r="B13" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="F13" s="12" t="s">
+    </row>
+    <row r="14" spans="2:6" ht="86.25">
+      <c r="B14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="87.5">
-      <c r="B14" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -8632,152 +8612,152 @@
       <selection activeCell="F4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="123">
+    <row r="2" spans="2:6" ht="126">
       <c r="B2" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="52.5">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="55">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="57.75">
       <c r="B5" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="87.5">
+    </row>
+    <row r="6" spans="2:6" ht="86.25">
       <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="55">
+    </row>
+    <row r="7" spans="2:6" ht="69">
       <c r="B7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>526</v>
-      </c>
       <c r="E7" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="F7" s="12" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="103.5">
+      <c r="B8" s="7" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="105">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="12" t="s">
+    </row>
+    <row r="9" spans="2:6" ht="86.25">
+      <c r="B9" s="7" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="87.5">
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="F9" s="12" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="103.5">
+      <c r="B10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="105">
-      <c r="B10" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="F10" s="12" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="86.25">
+      <c r="B11" s="7" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="70">
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -8793,113 +8773,113 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:7" ht="60" customHeight="1">
       <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="29">
+    <row r="3" spans="3:7" ht="30">
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="188.5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="195">
       <c r="C4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="3:7" ht="325.5">
+      <c r="C5" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="318.5">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="G5" s="13" t="s">
+    </row>
+    <row r="6" spans="3:7" ht="285">
+      <c r="C6" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" ht="268.5">
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="409.5">
       <c r="C7" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="G7" s="13" t="s">
+    </row>
+    <row r="8" spans="3:7" ht="236.25">
+      <c r="C8" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" ht="231">
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>610</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -8915,113 +8895,113 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="29">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30">
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="273">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="279.75">
       <c r="B4" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="13" t="s">
         <v>623</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="409.5">
       <c r="B5" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="268.5">
+    </row>
+    <row r="6" spans="2:6" ht="261.75">
       <c r="B6" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="409.5">
       <c r="B7" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="300">
+      <c r="B8" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="C8" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="293.5">
-      <c r="B8" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9037,16 +9017,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9062,7 +9042,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9074,15 +9054,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="261">
+    <row r="1" spans="1:7" ht="285">
       <c r="A1" s="5" t="s">
         <v>99</v>
       </c>
@@ -9107,7 +9087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29">
+    <row r="3" spans="1:7" ht="30">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -9127,7 +9107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7" ht="30">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -9147,7 +9127,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29">
+    <row r="5" spans="1:7" ht="30">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -9167,7 +9147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29">
+    <row r="6" spans="1:7" ht="30">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -9187,7 +9167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29">
+    <row r="7" spans="1:7" ht="30">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -9207,7 +9187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29">
+    <row r="8" spans="1:7" ht="30">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -9227,7 +9207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29">
+    <row r="9" spans="1:7" ht="30">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -9247,7 +9227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29">
+    <row r="10" spans="1:7" ht="30">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -9267,7 +9247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29">
+    <row r="11" spans="1:7" ht="30">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -9287,7 +9267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29">
+    <row r="12" spans="1:7" ht="30">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -9307,7 +9287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29">
+    <row r="13" spans="1:7" ht="30">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -9327,7 +9307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29">
+    <row r="14" spans="1:7" ht="30">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -9347,7 +9327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29">
+    <row r="15" spans="1:7" ht="30">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -9367,7 +9347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29">
+    <row r="16" spans="1:7" ht="30">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -9387,7 +9367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="29">
+    <row r="17" spans="2:7" ht="30">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -9407,7 +9387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="29">
+    <row r="18" spans="2:7" ht="30">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -9427,7 +9407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="29">
+    <row r="19" spans="2:7" ht="30">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -9447,7 +9427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="29">
+    <row r="20" spans="2:7" ht="30">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -9467,7 +9447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="29">
+    <row r="21" spans="2:7" ht="30">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -9487,7 +9467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="29">
+    <row r="22" spans="2:7" ht="30">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -9516,20 +9496,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB24A3DF-62FB-46F2-BC7E-048A836E1FD3}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9546,7 +9526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="143">
+    <row r="3" spans="1:5" ht="162.75">
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
@@ -9560,7 +9540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="101.5">
+    <row r="4" spans="1:5" ht="135">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -9574,7 +9554,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="101.5">
+    <row r="5" spans="1:5" ht="135">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -9588,7 +9568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="157.5">
+    <row r="6" spans="1:5" ht="175.5">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -9602,7 +9582,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="99.5">
+    <row r="7" spans="1:5" ht="117.75">
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -9616,7 +9596,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="99.5">
+    <row r="8" spans="1:5" ht="102.75">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9630,7 +9610,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="101.5">
+    <row r="9" spans="1:5" ht="135">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -9644,7 +9624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="114">
+    <row r="10" spans="1:5" ht="132.75">
       <c r="B10" s="4" t="s">
         <v>107</v>
       </c>
@@ -9658,7 +9638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="116">
+    <row r="11" spans="1:5" ht="150">
       <c r="B11" s="4" t="s">
         <v>109</v>
       </c>
@@ -9672,7 +9652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="116">
+    <row r="12" spans="1:5" ht="150">
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
@@ -9686,7 +9666,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="116">
+    <row r="13" spans="1:5" ht="120">
       <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
@@ -9700,7 +9680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="116">
+    <row r="14" spans="1:5" ht="150">
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
@@ -9714,7 +9694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="101.5">
+    <row r="15" spans="1:5" ht="120">
       <c r="B15" s="4" t="s">
         <v>114</v>
       </c>
@@ -9728,7 +9708,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="87">
+    <row r="16" spans="1:5" ht="90">
       <c r="B16" s="4" t="s">
         <v>116</v>
       </c>
@@ -9742,7 +9722,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="101.5">
+    <row r="17" spans="2:5" ht="135">
       <c r="B17" s="4" t="s">
         <v>118</v>
       </c>
@@ -9756,7 +9736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="99.5">
+    <row r="18" spans="2:5" ht="102.75">
       <c r="B18" s="4" t="s">
         <v>120</v>
       </c>
@@ -9770,7 +9750,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="72.5">
+    <row r="19" spans="2:5" ht="90">
       <c r="B19" s="4" t="s">
         <v>122</v>
       </c>
@@ -9784,7 +9764,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="87">
+    <row r="20" spans="2:5" ht="105">
       <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
@@ -9798,7 +9778,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="87">
+    <row r="21" spans="2:5" ht="105">
       <c r="B21" s="4" t="s">
         <v>126</v>
       </c>
@@ -9812,7 +9792,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="87">
+    <row r="22" spans="2:5" ht="90">
       <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
@@ -9839,121 +9819,121 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="9"/>
-    <col min="3" max="3" width="26.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="26.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="9" customWidth="1"/>
     <col min="6" max="6" width="19" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="9"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="137">
+    <row r="2" spans="2:6" ht="169.5">
       <c r="B2" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="2:6" ht="103.5">
+      <c r="B5" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="105">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="138">
+      <c r="B6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="140">
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="81.75">
+      <c r="B7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="67">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="86.25">
+      <c r="B8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="86">
-      <c r="B8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="86.25">
+      <c r="B9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="87.5">
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9966,139 +9946,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8E1AD-4563-499F-A50C-B3135A9A7F08}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="9"/>
-    <col min="2" max="2" width="23.1796875" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="23.140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="52.5">
+    <row r="2" spans="2:6" ht="67.5">
       <c r="B2" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="189.5">
+    </row>
+    <row r="5" spans="2:6" ht="186.75">
       <c r="B5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="171">
+      <c r="B6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="173.5">
-      <c r="B6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="153.75">
+      <c r="B7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="156">
-      <c r="B7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="207">
+      <c r="B8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="192.5">
-      <c r="B8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="222.75">
+      <c r="B9" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="208.5">
-      <c r="B9" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="195">
+      <c r="B10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="179">
-      <c r="B10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -10114,133 +10094,133 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="137">
+    <row r="2" spans="2:6" ht="185.25">
       <c r="B2" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="189.5">
+    </row>
+    <row r="5" spans="2:6" ht="185.25">
       <c r="B5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="192">
+      <c r="B6" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="177.5">
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="171">
+      <c r="B7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="173.5">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="186.75">
+      <c r="B8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="172">
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="210.75">
+      <c r="B9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="183.5">
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="133.5">
+      <c r="B10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="135.5">
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -10256,133 +10236,133 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="121">
+    <row r="2" spans="2:6" ht="169.5">
       <c r="B2" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="157.5">
+    </row>
+    <row r="5" spans="2:6" ht="185.25">
       <c r="B5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="207">
+      <c r="B6" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="210">
-      <c r="B6" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="193.5">
+      <c r="B7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="180.5">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="229.5">
+      <c r="B8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="217">
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="9" spans="2:6" ht="188.25">
+      <c r="B9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="175">
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="278.25">
+      <c r="B10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="249">
-      <c r="B10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -10398,141 +10378,141 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="169">
+    <row r="2" spans="2:6" ht="201">
       <c r="B2" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="52.5">
+    <row r="4" spans="2:6" ht="51.75">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="202.5">
+      <c r="B5" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="205.5">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="221.25">
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="224.5">
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="127.5">
+      <c r="B7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="129.5">
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="8" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="172.5">
+      <c r="B8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="C8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="155.25">
+      <c r="B9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="175">
-      <c r="B8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="157.5">
-      <c r="B9" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="140">
+    <row r="10" spans="2:6" ht="138">
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10548,182 +10528,182 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="103.5">
+    <row r="2" spans="2:6" ht="102">
       <c r="B2" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:6" ht="16">
+    <row r="3" spans="2:6" ht="15.75">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:6" ht="35">
+    <row r="4" spans="2:6" ht="34.5">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="127.5">
+      <c r="B5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="86.25">
+      <c r="B6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="138">
+      <c r="B7" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="113.5">
-      <c r="B5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="87.5">
-      <c r="B6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="69">
+      <c r="B8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="122.5">
-      <c r="B7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="70">
-      <c r="B8" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="97.5">
+    </row>
+    <row r="9" spans="2:6" ht="96">
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="87.5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="86.25">
       <c r="B10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="86.25">
+      <c r="B11" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="87.5">
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="12" spans="2:6" ht="69">
+      <c r="B12" s="7" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="70">
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>354</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
